--- a/data/trans_orig/IP19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6107866-5D07-4AA2-B4B8-97A52A3BA5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6577AD2-A780-4D9E-8455-3CFD2E60253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC85931-00B3-4D63-93E7-E93996CCA3D6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FA709214-6D10-4AA4-BD28-EBD7A4A58ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,10 +68,184 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>No, nunca ha ido al/la dentista</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>66,85%</t>
@@ -101,15 +275,6 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>No, nunca ha ido al/la dentista</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -119,108 +284,102 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
     <t>74,23%</t>
   </si>
   <si>
@@ -257,163 +416,31 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>70,76%</t>
@@ -452,36 +479,162 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
     <t>70,84%</t>
   </si>
   <si>
@@ -512,94 +665,94 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>74,34%</t>
@@ -635,157 +788,31 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>70,99%</t>
@@ -815,36 +842,147 @@
     <t>72,08%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
     <t>70,71%</t>
   </si>
   <si>
@@ -869,88 +1007,85 @@
     <t>73,1%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>74,63%</t>
@@ -983,139 +1118,31 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>71,71%</t>
@@ -1145,36 +1172,195 @@
     <t>72,81%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
   </si>
   <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
     <t>40,45%</t>
   </si>
   <si>
@@ -1223,109 +1409,106 @@
     <t>36,02%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>33,73%</t>
@@ -1382,187 +1565,25 @@
     <t>37,42%</t>
   </si>
   <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>38,4%</t>
@@ -1605,27 +1626,6 @@
   </si>
   <si>
     <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D42A2D3-55DA-4D09-9BDF-873458224984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D354136-C24D-4C5C-A8C3-FFFDAC313CDB}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2135,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>141823</v>
+        <v>8220</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2150,10 +2150,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>126668</v>
+        <v>9605</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2165,10 +2165,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>419</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>268491</v>
+        <v>17825</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2186,10 +2186,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>17224</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2201,82 +2201,82 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>13119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>30343</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>70319</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>67804</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="M6" s="7">
-        <v>214</v>
-      </c>
-      <c r="N6" s="7">
-        <v>138123</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -2288,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2303,10 +2303,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>194472</v>
+        <v>22724</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2318,10 +2318,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>633</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>406614</v>
+        <v>48168</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2341,10 +2341,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7">
-        <v>92528</v>
+        <v>35105</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -2356,10 +2356,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7">
-        <v>75605</v>
+        <v>40397</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -2371,10 +2371,10 @@
         <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="N8" s="7">
-        <v>168133</v>
+        <v>75502</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -2392,97 +2392,97 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>92528</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>75605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>168133</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>35105</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>40397</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>75502</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2547,10 +2547,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>154261</v>
+        <v>70319</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>60</v>
@@ -2562,10 +2562,10 @@
         <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="I12" s="7">
-        <v>143131</v>
+        <v>67804</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>63</v>
@@ -2577,10 +2577,10 @@
         <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>416</v>
+        <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>297392</v>
+        <v>138123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>66</v>
@@ -2598,97 +2598,97 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>141823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>126668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>268491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="7">
-        <v>53563</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="H14" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>66184</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>119747</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -2700,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D15" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2715,10 +2715,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="I15" s="7">
-        <v>209315</v>
+        <v>194472</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2730,10 +2730,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="N15" s="7">
-        <v>417139</v>
+        <v>406614</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2753,10 +2753,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>17224</v>
+        <v>44117</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -2768,10 +2768,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>13119</v>
+        <v>37321</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -2783,10 +2783,10 @@
         <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="N16" s="7">
-        <v>30343</v>
+        <v>81438</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -2804,97 +2804,97 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>105540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>100496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>206036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>8220</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>9605</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>17825</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>102</v>
@@ -2906,10 +2906,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D19" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2921,10 +2921,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2936,10 +2936,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N19" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2959,10 +2959,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>105540</v>
+        <v>53563</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>104</v>
@@ -2974,10 +2974,10 @@
         <v>106</v>
       </c>
       <c r="H20" s="7">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7">
-        <v>100496</v>
+        <v>66184</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>107</v>
@@ -2989,10 +2989,10 @@
         <v>109</v>
       </c>
       <c r="M20" s="7">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>206036</v>
+        <v>119747</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>110</v>
@@ -3010,97 +3010,97 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>154261</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>143131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>297392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>44117</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>37321</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>81438</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>124</v>
@@ -3112,10 +3112,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D23" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -3127,10 +3127,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I23" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3142,10 +3142,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N23" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -3165,10 +3165,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>769</v>
+        <v>317</v>
       </c>
       <c r="D24" s="7">
-        <v>511376</v>
+        <v>211324</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>125</v>
@@ -3180,10 +3180,10 @@
         <v>127</v>
       </c>
       <c r="H24" s="7">
-        <v>692</v>
+        <v>325</v>
       </c>
       <c r="I24" s="7">
-        <v>459019</v>
+        <v>221311</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>128</v>
@@ -3195,10 +3195,10 @@
         <v>130</v>
       </c>
       <c r="M24" s="7">
-        <v>1461</v>
+        <v>642</v>
       </c>
       <c r="N24" s="7">
-        <v>970395</v>
+        <v>432635</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>131</v>
@@ -3216,97 +3216,97 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>511376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>459019</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>970395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>211324</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>221311</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>432635</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>145</v>
@@ -3381,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00496276-20FF-4DDE-9C75-512CE89BE04F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B3BE0-0862-48F8-85B0-79B2C9EB80A1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3499,10 +3499,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>158168</v>
+        <v>7333</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>147</v>
@@ -3514,10 +3514,10 @@
         <v>149</v>
       </c>
       <c r="H4" s="7">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>136536</v>
+        <v>9101</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>150</v>
@@ -3529,10 +3529,10 @@
         <v>152</v>
       </c>
       <c r="M4" s="7">
-        <v>443</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>294704</v>
+        <v>16434</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>153</v>
@@ -3550,100 +3550,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>18122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>13272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>31394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>65095</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>69822</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M6" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>134917</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3652,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>223263</v>
+        <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3667,10 +3667,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3682,10 +3682,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>642</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>429621</v>
+        <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3705,49 +3705,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
-        <v>86808</v>
+        <v>42421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>84081</v>
+        <v>32903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="N8" s="7">
-        <v>170889</v>
+        <v>75324</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,100 +3756,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>86808</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>84081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>170889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>42421</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>32903</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>75324</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,49 +3911,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7">
-        <v>153360</v>
+        <v>65095</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H12" s="7">
+        <v>105</v>
+      </c>
+      <c r="I12" s="7">
+        <v>69822</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" s="7">
+        <v>199</v>
+      </c>
+      <c r="N12" s="7">
+        <v>134917</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="I12" s="7">
-        <v>149431</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M12" s="7">
-        <v>403</v>
-      </c>
-      <c r="N12" s="7">
-        <v>302790</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,100 +3962,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>158168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>136536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>294704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>52929</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>60869</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>113799</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="D15" s="7">
-        <v>206289</v>
+        <v>223263</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4079,10 +4079,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4094,10 +4094,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>555</v>
+        <v>642</v>
       </c>
       <c r="N15" s="7">
-        <v>416589</v>
+        <v>429621</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4117,49 +4117,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>18122</v>
+        <v>49625</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>13272</v>
+        <v>46351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="N16" s="7">
-        <v>31394</v>
+        <v>95976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,100 +4168,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>115539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>109025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>224564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>7333</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>9101</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>16434</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,10 +4270,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D19" s="7">
-        <v>25455</v>
+        <v>165164</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4285,10 +4285,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I19" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4300,10 +4300,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N19" s="7">
-        <v>47828</v>
+        <v>320540</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -4323,49 +4323,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7">
-        <v>115539</v>
+        <v>52929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>109025</v>
+        <v>60869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
-        <v>348</v>
+        <v>152</v>
       </c>
       <c r="N20" s="7">
-        <v>224564</v>
+        <v>113799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,97 +4374,97 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>153360</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>149431</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>302790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>49625</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>46351</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>95976</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>248</v>
@@ -4476,10 +4476,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D23" s="7">
-        <v>165164</v>
+        <v>206289</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -4491,10 +4491,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4506,10 +4506,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="N23" s="7">
-        <v>320540</v>
+        <v>416589</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -4529,10 +4529,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>760</v>
+        <v>308</v>
       </c>
       <c r="D24" s="7">
-        <v>531997</v>
+        <v>217403</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>249</v>
@@ -4544,10 +4544,10 @@
         <v>251</v>
       </c>
       <c r="H24" s="7">
-        <v>711</v>
+        <v>314</v>
       </c>
       <c r="I24" s="7">
-        <v>492345</v>
+        <v>219046</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>252</v>
@@ -4559,10 +4559,10 @@
         <v>254</v>
       </c>
       <c r="M24" s="7">
-        <v>1471</v>
+        <v>622</v>
       </c>
       <c r="N24" s="7">
-        <v>1024342</v>
+        <v>436449</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>255</v>
@@ -4580,100 +4580,100 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>531997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>492345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1024342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>217403</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>219046</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>436449</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,7 +4745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77437210-AC83-4CCC-9E4F-D4DD16A25DA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151F776C-7189-4CEB-B51A-594F36CDF69F}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4863,10 +4863,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>158652</v>
+        <v>7817</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>268</v>
@@ -4878,10 +4878,10 @@
         <v>270</v>
       </c>
       <c r="H4" s="7">
-        <v>233</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>142384</v>
+        <v>8857</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>271</v>
@@ -4893,19 +4893,19 @@
         <v>273</v>
       </c>
       <c r="M4" s="7">
-        <v>472</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>301036</v>
+        <v>16674</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,100 +4914,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>17757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>13670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>31427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>65707</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H6" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>64863</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>130570</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,10 +5016,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -5031,10 +5031,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5046,10 +5046,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5069,49 +5069,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>84901</v>
+        <v>37601</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>79386</v>
+        <v>31794</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="N8" s="7">
-        <v>164287</v>
+        <v>69395</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,100 +5120,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>84901</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>79386</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>164287</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>37601</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>31794</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>69395</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,49 +5275,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7">
-        <v>153537</v>
+        <v>65707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H12" s="7">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="I12" s="7">
-        <v>144833</v>
+        <v>64863</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M12" s="7">
-        <v>418</v>
+        <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>298369</v>
+        <v>130570</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>153</v>
+        <v>313</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>311</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,100 +5326,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>158652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>142384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>301036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>52199</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>62587</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>114787</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,10 +5428,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5443,10 +5443,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5458,10 +5458,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N15" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5481,43 +5481,43 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>17757</v>
+        <v>47389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>13670</v>
+        <v>45194</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>31427</v>
+        <v>92583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>329</v>
@@ -5532,100 +5532,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>119284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>110803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>230087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>7817</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>8857</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>337</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>16674</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>339</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,10 +5634,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5649,10 +5649,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5664,10 +5664,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N19" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5687,49 +5687,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7">
-        <v>119284</v>
+        <v>52199</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>83</v>
+      </c>
+      <c r="I20" s="7">
+        <v>62587</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H20" s="7">
-        <v>187</v>
-      </c>
-      <c r="I20" s="7">
-        <v>110803</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>346</v>
       </c>
       <c r="M20" s="7">
-        <v>365</v>
+        <v>153</v>
       </c>
       <c r="N20" s="7">
-        <v>230087</v>
+        <v>114787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,97 +5738,97 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>153537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>349</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>144833</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>298369</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>47389</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>45194</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>92583</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>358</v>
@@ -5840,10 +5840,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D23" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -5855,10 +5855,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -5870,10 +5870,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N23" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -5893,10 +5893,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>774</v>
+        <v>291</v>
       </c>
       <c r="D24" s="7">
-        <v>534131</v>
+        <v>210713</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>359</v>
@@ -5908,10 +5908,10 @@
         <v>361</v>
       </c>
       <c r="H24" s="7">
-        <v>750</v>
+        <v>311</v>
       </c>
       <c r="I24" s="7">
-        <v>491075</v>
+        <v>213296</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>362</v>
@@ -5923,10 +5923,10 @@
         <v>364</v>
       </c>
       <c r="M24" s="7">
-        <v>1524</v>
+        <v>602</v>
       </c>
       <c r="N24" s="7">
-        <v>1025207</v>
+        <v>424008</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>365</v>
@@ -5944,100 +5944,100 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>534131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>369</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>491075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>371</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1524</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1025207</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>210713</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>369</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>370</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>213296</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>371</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>424008</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>374</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>375</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>376</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DA2C14-92FD-49C7-AABE-EF49C22AD63C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA7ED7-3475-411E-BE57-AB45F0BC3404}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6227,10 +6227,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>99393</v>
+        <v>2496</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>378</v>
@@ -6242,34 +6242,34 @@
         <v>380</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>72857</v>
+        <v>6589</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>381</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>382</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M4" s="7">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>172251</v>
+        <v>9085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,100 +6278,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>71729</v>
+        <v>4523</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>68162</v>
+        <v>5244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>139891</v>
+        <v>9767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>74611</v>
+        <v>5679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>48182</v>
+        <v>4955</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M6" s="7">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>122793</v>
+        <v>10634</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,10 +6380,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>245734</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -6395,10 +6395,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>189201</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -6410,10 +6410,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>613</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>434935</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -6433,49 +6433,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>43307</v>
+        <v>32207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>39349</v>
+        <v>27980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M8" s="7">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="N8" s="7">
-        <v>82657</v>
+        <v>60188</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>412</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,100 +6484,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7">
-        <v>38535</v>
+        <v>43307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H9" s="7">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>36565</v>
+        <v>39349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M9" s="7">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="N9" s="7">
-        <v>75100</v>
+        <v>82657</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>418</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>32207</v>
+        <v>38535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>27980</v>
+        <v>36565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="N10" s="7">
-        <v>60188</v>
+        <v>75100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,49 +6639,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7">
-        <v>57984</v>
+        <v>74611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>55915</v>
+        <v>48182</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M12" s="7">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="N12" s="7">
-        <v>113898</v>
+        <v>122793</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,100 +6690,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>57630</v>
+        <v>99393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>54479</v>
+        <v>72857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M13" s="7">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="N13" s="7">
-        <v>112109</v>
+        <v>172251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D14" s="7">
-        <v>56281</v>
+        <v>71729</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="I14" s="7">
-        <v>57110</v>
+        <v>68162</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>451</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="N14" s="7">
-        <v>113391</v>
+        <v>139891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,10 +6792,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="D15" s="7">
-        <v>171895</v>
+        <v>245734</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -6807,10 +6807,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="I15" s="7">
-        <v>167504</v>
+        <v>189201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -6822,10 +6822,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>339398</v>
+        <v>434935</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -6845,13 +6845,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>4523</v>
+        <v>56068</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>456</v>
@@ -6860,10 +6860,10 @@
         <v>457</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>5244</v>
+        <v>51750</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>458</v>
@@ -6875,10 +6875,10 @@
         <v>460</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="N16" s="7">
-        <v>9767</v>
+        <v>107818</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>461</v>
@@ -6896,10 +6896,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>5679</v>
+        <v>69160</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>464</v>
@@ -6911,10 +6911,10 @@
         <v>466</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>4955</v>
+        <v>65380</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>467</v>
@@ -6926,10 +6926,10 @@
         <v>469</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="N17" s="7">
-        <v>10634</v>
+        <v>134540</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>470</v>
@@ -6944,13 +6944,13 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7">
-        <v>2496</v>
+        <v>44873</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>473</v>
@@ -6962,10 +6962,10 @@
         <v>475</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7">
-        <v>6589</v>
+        <v>48103</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>476</v>
@@ -6977,10 +6977,10 @@
         <v>478</v>
       </c>
       <c r="M18" s="7">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="N18" s="7">
-        <v>9085</v>
+        <v>92976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>479</v>
@@ -6998,10 +6998,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>170101</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -7013,10 +7013,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>165234</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -7028,10 +7028,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>443</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>335335</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -7051,10 +7051,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7">
-        <v>69160</v>
+        <v>56281</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>482</v>
@@ -7066,34 +7066,34 @@
         <v>484</v>
       </c>
       <c r="H20" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" s="7">
-        <v>65380</v>
+        <v>57110</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>149</v>
+      </c>
+      <c r="N20" s="7">
+        <v>113391</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M20" s="7">
-        <v>158</v>
-      </c>
-      <c r="N20" s="7">
-        <v>134540</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,64 +7102,64 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="7">
-        <v>44873</v>
+        <v>57984</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>76</v>
+      </c>
+      <c r="I21" s="7">
+        <v>55915</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="H21" s="7">
-        <v>75</v>
-      </c>
-      <c r="I21" s="7">
-        <v>48103</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>148</v>
+      </c>
+      <c r="N21" s="7">
+        <v>113898</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="M21" s="7">
-        <v>149</v>
-      </c>
-      <c r="N21" s="7">
-        <v>92976</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7">
-        <v>56068</v>
+        <v>57630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>499</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>500</v>
@@ -7168,10 +7168,10 @@
         <v>501</v>
       </c>
       <c r="H22" s="7">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>51750</v>
+        <v>54479</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>502</v>
@@ -7183,10 +7183,10 @@
         <v>504</v>
       </c>
       <c r="M22" s="7">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N22" s="7">
-        <v>107818</v>
+        <v>112109</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>505</v>
@@ -7204,10 +7204,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D23" s="7">
-        <v>170101</v>
+        <v>171895</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -7219,10 +7219,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I23" s="7">
-        <v>165234</v>
+        <v>167504</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -7234,10 +7234,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="N23" s="7">
-        <v>335335</v>
+        <v>339398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -7257,25 +7257,25 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="D24" s="7">
-        <v>274367</v>
+        <v>221663</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>508</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="H24" s="7">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="I24" s="7">
-        <v>238745</v>
+        <v>191612</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>510</v>
@@ -7287,19 +7287,19 @@
         <v>512</v>
       </c>
       <c r="M24" s="7">
-        <v>648</v>
+        <v>541</v>
       </c>
       <c r="N24" s="7">
-        <v>513112</v>
+        <v>413275</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7308,97 +7308,97 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D25" s="7">
-        <v>218446</v>
+        <v>274367</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>515</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>516</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="7">
+        <v>315</v>
+      </c>
+      <c r="I25" s="7">
+        <v>238745</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="H25" s="7">
-        <v>345</v>
-      </c>
-      <c r="I25" s="7">
-        <v>212264</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>243</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="N25" s="7">
-        <v>430710</v>
+        <v>513112</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="D26" s="7">
-        <v>221663</v>
+        <v>218446</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>268</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>523</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="I26" s="7">
-        <v>191612</v>
+        <v>212264</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>702</v>
+      </c>
+      <c r="N26" s="7">
+        <v>430710</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="M26" s="7">
-        <v>541</v>
-      </c>
-      <c r="N26" s="7">
-        <v>413275</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>528</v>

--- a/data/trans_orig/IP19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6577AD2-A780-4D9E-8455-3CFD2E60253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5811A6F-4E8D-4D4F-A366-4DAE405E9963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FA709214-6D10-4AA4-BD28-EBD7A4A58ABC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E3F7A4E-47EC-4F2E-88DF-3CE424B69251}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="539">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -71,82 +71,82 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>No, nunca ha ido al/la dentista</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
     <t>Sí</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>42,27%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>No, nunca ha ido al/la dentista</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,1477 +155,1507 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>34,87%</t>
   </si>
   <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>34,63%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>28,03%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>32,87%</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1666,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1732,39 +1762,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1816,7 +1846,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1927,13 +1957,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1942,6 +1965,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2006,19 +2036,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D354136-C24D-4C5C-A8C3-FFFDAC313CDB}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29DD2D2-45A3-4E36-B53F-A3086363A00E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2135,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>8220</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2150,40 +2200,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>9605</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>23</v>
-      </c>
-      <c r="N4" s="7">
-        <v>17825</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>22</v>
@@ -2192,13 +2242,13 @@
         <v>17224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2207,13 +2257,13 @@
         <v>13119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -2222,61 +2272,61 @@
         <v>30343</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8220</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9605</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>23</v>
+      </c>
+      <c r="N6" s="7">
+        <v>17825</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -2341,55 +2391,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>35105</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>60</v>
-      </c>
-      <c r="I8" s="7">
-        <v>40397</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="7">
-        <v>113</v>
-      </c>
-      <c r="N8" s="7">
-        <v>75502</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>140</v>
@@ -2398,13 +2448,13 @@
         <v>92528</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -2413,13 +2463,13 @@
         <v>75605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>254</v>
@@ -2428,61 +2478,61 @@
         <v>168133</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>35105</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7">
+        <v>40397</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
+        <v>113</v>
+      </c>
+      <c r="N10" s="7">
+        <v>75502</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2547,55 +2597,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>70319</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H12" s="7">
-        <v>107</v>
-      </c>
-      <c r="I12" s="7">
-        <v>67804</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="7">
-        <v>214</v>
-      </c>
-      <c r="N12" s="7">
-        <v>138123</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>215</v>
@@ -2604,13 +2654,13 @@
         <v>141823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -2619,13 +2669,13 @@
         <v>126668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>419</v>
@@ -2634,61 +2684,61 @@
         <v>268491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>70319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>107</v>
+      </c>
+      <c r="I14" s="7">
+        <v>67804</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="7">
+        <v>214</v>
+      </c>
+      <c r="N14" s="7">
+        <v>138123</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -2753,55 +2803,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>44117</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>37321</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="7">
-        <v>128</v>
-      </c>
-      <c r="N16" s="7">
-        <v>81438</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>164</v>
@@ -2810,13 +2860,13 @@
         <v>105540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>169</v>
@@ -2825,13 +2875,13 @@
         <v>100496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -2840,61 +2890,61 @@
         <v>206036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>44117</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="7">
+        <v>60</v>
+      </c>
+      <c r="I18" s="7">
+        <v>37321</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="7">
+        <v>128</v>
+      </c>
+      <c r="N18" s="7">
+        <v>81438</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>102</v>
@@ -2959,55 +3009,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>53563</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H20" s="7">
-        <v>86</v>
-      </c>
-      <c r="I20" s="7">
-        <v>66184</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="7">
-        <v>164</v>
-      </c>
-      <c r="N20" s="7">
-        <v>119747</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>228</v>
@@ -3016,13 +3066,13 @@
         <v>154261</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>188</v>
@@ -3031,13 +3081,13 @@
         <v>143131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>416</v>
@@ -3046,61 +3096,61 @@
         <v>297392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>53563</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="7">
+        <v>86</v>
+      </c>
+      <c r="I22" s="7">
+        <v>66184</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="7">
+        <v>164</v>
+      </c>
+      <c r="N22" s="7">
+        <v>119747</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>124</v>
@@ -3165,55 +3215,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>211324</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="H24" s="7">
-        <v>325</v>
-      </c>
-      <c r="I24" s="7">
-        <v>221311</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M24" s="7">
-        <v>642</v>
-      </c>
-      <c r="N24" s="7">
-        <v>432635</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>769</v>
@@ -3222,13 +3272,13 @@
         <v>511376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>692</v>
@@ -3237,13 +3287,13 @@
         <v>459019</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>1461</v>
@@ -3252,61 +3302,61 @@
         <v>970395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>211324</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="7">
+        <v>325</v>
+      </c>
+      <c r="I26" s="7">
+        <v>221311</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="7">
+        <v>642</v>
+      </c>
+      <c r="N26" s="7">
+        <v>432635</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>145</v>
@@ -3361,6 +3411,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3381,8 +3436,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B3BE0-0862-48F8-85B0-79B2C9EB80A1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC55F7-7D9A-44E9-8BCC-4123BA4EA8D8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3398,7 +3453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3499,55 +3554,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7333</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="7">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7">
-        <v>9101</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>16434</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>20</v>
@@ -3556,13 +3611,13 @@
         <v>18122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3571,13 +3626,13 @@
         <v>13272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -3586,64 +3641,64 @@
         <v>31394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>7333</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9101</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>19</v>
+      </c>
+      <c r="N6" s="7">
+        <v>16434</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,55 +3760,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>42421</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="7">
-        <v>45</v>
-      </c>
-      <c r="I8" s="7">
-        <v>32903</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M8" s="7">
-        <v>104</v>
-      </c>
-      <c r="N8" s="7">
-        <v>75324</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>124</v>
@@ -3762,13 +3817,13 @@
         <v>86808</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>118</v>
@@ -3777,13 +3832,13 @@
         <v>84081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>242</v>
@@ -3792,64 +3847,64 @@
         <v>170889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>42421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="7">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7">
+        <v>32903</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>104</v>
+      </c>
+      <c r="N10" s="7">
+        <v>75324</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,55 +3966,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>65095</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="7">
-        <v>105</v>
-      </c>
-      <c r="I12" s="7">
-        <v>69822</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="M12" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>134917</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>229</v>
@@ -3968,13 +4023,13 @@
         <v>158168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
@@ -3983,13 +4038,13 @@
         <v>136536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -3998,64 +4053,64 @@
         <v>294704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>65095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>69822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="7">
+        <v>199</v>
+      </c>
+      <c r="N14" s="7">
+        <v>134917</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,55 +4172,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>49625</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="7">
-        <v>74</v>
-      </c>
-      <c r="I16" s="7">
-        <v>46351</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M16" s="7">
-        <v>148</v>
-      </c>
-      <c r="N16" s="7">
-        <v>95976</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>180</v>
@@ -4174,13 +4229,13 @@
         <v>115539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -4189,13 +4244,13 @@
         <v>109025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>348</v>
@@ -4204,64 +4259,64 @@
         <v>224564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>49625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="7">
+        <v>74</v>
+      </c>
+      <c r="I18" s="7">
+        <v>46351</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>148</v>
+      </c>
+      <c r="N18" s="7">
+        <v>95976</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,55 +4378,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>52929</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H20" s="7">
-        <v>79</v>
-      </c>
-      <c r="I20" s="7">
-        <v>60869</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M20" s="7">
-        <v>152</v>
-      </c>
-      <c r="N20" s="7">
-        <v>113799</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>207</v>
@@ -4380,13 +4435,13 @@
         <v>153360</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7">
         <v>196</v>
@@ -4395,13 +4450,13 @@
         <v>149431</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -4410,64 +4465,64 @@
         <v>302790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>52929</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" s="7">
+        <v>79</v>
+      </c>
+      <c r="I22" s="7">
+        <v>60869</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" s="7">
+        <v>152</v>
+      </c>
+      <c r="N22" s="7">
+        <v>113799</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,55 +4584,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>217403</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>219046</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>436449</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>760</v>
@@ -4586,13 +4641,13 @@
         <v>531997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>711</v>
@@ -4601,13 +4656,13 @@
         <v>492345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>1471</v>
@@ -4616,64 +4671,64 @@
         <v>1024342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>217403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>219046</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>436449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,6 +4780,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4745,8 +4805,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151F776C-7189-4CEB-B51A-594F36CDF69F}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263F129A-6B68-49AA-89C1-DB5DB4CFD6B0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4762,7 +4822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4863,55 +4923,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7817</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8857</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>16674</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>21</v>
@@ -4920,13 +4980,13 @@
         <v>17757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -4935,13 +4995,13 @@
         <v>13670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4950,64 +5010,64 @@
         <v>31427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>7817</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8857</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M6" s="7">
+        <v>18</v>
+      </c>
+      <c r="N6" s="7">
+        <v>16674</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,55 +5129,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>37601</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="H8" s="7">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7">
-        <v>31794</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M8" s="7">
-        <v>95</v>
-      </c>
-      <c r="N8" s="7">
-        <v>69395</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>116</v>
@@ -5126,13 +5186,13 @@
         <v>84901</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H9" s="7">
         <v>117</v>
@@ -5141,13 +5201,13 @@
         <v>79386</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -5156,64 +5216,64 @@
         <v>164287</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>37601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="7">
+        <v>46</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31794</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>69395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,55 +5335,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>65707</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="H12" s="7">
-        <v>101</v>
-      </c>
-      <c r="I12" s="7">
-        <v>64863</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M12" s="7">
-        <v>194</v>
-      </c>
-      <c r="N12" s="7">
-        <v>130570</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>239</v>
@@ -5332,13 +5392,13 @@
         <v>158652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>233</v>
@@ -5347,13 +5407,13 @@
         <v>142384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>472</v>
@@ -5362,64 +5422,64 @@
         <v>301036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>65707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>64863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>130570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,55 +5541,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>47389</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>45194</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="M16" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>92583</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>178</v>
@@ -5538,13 +5598,13 @@
         <v>119284</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -5553,10 +5613,10 @@
         <v>110803</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>335</v>
@@ -5568,64 +5628,64 @@
         <v>230087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>47389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>340</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>45194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>92583</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,55 +5747,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>52199</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>62587</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>114787</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>220</v>
@@ -5744,13 +5804,13 @@
         <v>153537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H21" s="7">
         <v>198</v>
@@ -5759,13 +5819,13 @@
         <v>144833</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>418</v>
@@ -5774,64 +5834,64 @@
         <v>298369</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>52199</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>62587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>114787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,55 +5953,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>210713</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>213296</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>424008</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>367</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>774</v>
@@ -5992,52 +6052,52 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>210713</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>213296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>424008</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,6 +6149,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6109,8 +6174,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA7ED7-3475-411E-BE57-AB45F0BC3404}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A34C9C-3398-4AC2-92DF-E509133A5354}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6126,7 +6191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6227,55 +6292,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>2496</v>
+        <v>5679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>6589</v>
+        <v>4955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>9085</v>
+        <v>10634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -6284,13 +6349,13 @@
         <v>4523</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6299,13 +6364,13 @@
         <v>5244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -6314,64 +6379,64 @@
         <v>9767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>5679</v>
+        <v>2496</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>4955</v>
+        <v>6589</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>10634</v>
+        <v>9085</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,55 +6498,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>32207</v>
+        <v>38535</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>27980</v>
+        <v>36565</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="N8" s="7">
-        <v>60188</v>
+        <v>75100</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>51</v>
@@ -6490,13 +6555,13 @@
         <v>43307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -6505,13 +6570,13 @@
         <v>39349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M9" s="7">
         <v>108</v>
@@ -6520,64 +6585,64 @@
         <v>82657</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>38535</v>
+        <v>32207</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>36565</v>
+        <v>27980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>75100</v>
+        <v>60188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,55 +6704,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D12" s="7">
-        <v>74611</v>
+        <v>71729</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>48182</v>
+        <v>68162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M12" s="7">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="N12" s="7">
-        <v>122793</v>
+        <v>139891</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>121</v>
@@ -6696,13 +6761,13 @@
         <v>99393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -6711,13 +6776,13 @@
         <v>72857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -6726,64 +6791,64 @@
         <v>172251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D14" s="7">
-        <v>71729</v>
+        <v>74611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="I14" s="7">
-        <v>68162</v>
+        <v>48182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="N14" s="7">
-        <v>139891</v>
+        <v>122793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,55 +6910,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>56068</v>
+        <v>44873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7">
-        <v>51750</v>
+        <v>48103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="N16" s="7">
-        <v>107818</v>
+        <v>92976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>83</v>
@@ -6902,13 +6967,13 @@
         <v>69160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6917,13 +6982,13 @@
         <v>65380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>124</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -6932,64 +6997,64 @@
         <v>134540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
-        <v>44873</v>
+        <v>56068</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H18" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I18" s="7">
-        <v>48103</v>
+        <v>51750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>477</v>
+        <v>343</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M18" s="7">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="N18" s="7">
-        <v>92976</v>
+        <v>107818</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,55 +7116,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7">
-        <v>56281</v>
+        <v>57630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I20" s="7">
-        <v>57110</v>
+        <v>54479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>113391</v>
+        <v>112109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>72</v>
@@ -7108,13 +7173,13 @@
         <v>57984</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -7123,13 +7188,13 @@
         <v>55915</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -7138,64 +7203,64 @@
         <v>113898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7">
-        <v>57630</v>
+        <v>56281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I22" s="7">
-        <v>54479</v>
+        <v>57110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="N22" s="7">
-        <v>112109</v>
+        <v>113391</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,55 +7322,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="D24" s="7">
-        <v>221663</v>
+        <v>218446</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>508</v>
+        <v>280</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H24" s="7">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="I24" s="7">
-        <v>191612</v>
+        <v>212264</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M24" s="7">
-        <v>541</v>
+        <v>702</v>
       </c>
       <c r="N24" s="7">
-        <v>413275</v>
+        <v>430710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>333</v>
@@ -7314,13 +7379,13 @@
         <v>274367</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>516</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>524</v>
       </c>
       <c r="H25" s="7">
         <v>315</v>
@@ -7329,13 +7394,13 @@
         <v>238745</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="M25" s="7">
         <v>648</v>
@@ -7344,64 +7409,64 @@
         <v>513112</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="D26" s="7">
-        <v>218446</v>
+        <v>221663</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H26" s="7">
         <v>268</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="H26" s="7">
-        <v>345</v>
-      </c>
       <c r="I26" s="7">
-        <v>212264</v>
+        <v>191612</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>211</v>
+        <v>534</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="M26" s="7">
-        <v>702</v>
+        <v>541</v>
       </c>
       <c r="N26" s="7">
-        <v>430710</v>
+        <v>413275</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,6 +7518,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5811A6F-4E8D-4D4F-A366-4DAE405E9963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5EB41A-C596-4958-9AF5-E209608C94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E3F7A4E-47EC-4F2E-88DF-3CE424B69251}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE4D3B71-E949-43E0-90DE-FEB4FFE29AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="529">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No, nunca ha ido al/la dentista</t>
@@ -95,28 +95,28 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>57,73%</t>
   </si>
   <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,34 +125,34 @@
     <t>32,31%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>42,27%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -167,58 +167,58 @@
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>65,18%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -233,1429 +233,1399 @@
     <t>66,85%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>47,24%</t>
   </si>
   <si>
     <t>37,93%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
   </si>
   <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>29,19%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>41,57%</t>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29DD2D2-45A3-4E36-B53F-A3086363A00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C972FBA-2FC8-41CF-BE73-2D4757E6D060}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3436,7 +3406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC55F7-7D9A-44E9-8BCC-4123BA4EA8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EA7159-29E2-4EB7-AEDB-3C7BA67DE212}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3835,10 +3805,10 @@
         <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>242</v>
@@ -3847,13 +3817,13 @@
         <v>170889</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3838,13 @@
         <v>42421</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3883,13 +3853,13 @@
         <v>32903</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -3898,13 +3868,13 @@
         <v>75324</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4023,13 +3993,13 @@
         <v>158168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
@@ -4038,13 +4008,13 @@
         <v>136536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -4053,13 +4023,13 @@
         <v>294704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4044,13 @@
         <v>65095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -4089,13 +4059,13 @@
         <v>69822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>199</v>
@@ -4104,13 +4074,13 @@
         <v>134917</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4199,7 +4169,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4214,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4199,13 @@
         <v>115539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -4244,13 +4214,13 @@
         <v>109025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>348</v>
@@ -4259,13 +4229,13 @@
         <v>224564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4250,13 @@
         <v>49625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -4295,13 +4265,13 @@
         <v>46351</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>148</v>
@@ -4310,13 +4280,13 @@
         <v>95976</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4420,7 +4390,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4405,13 @@
         <v>153360</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H21" s="7">
         <v>196</v>
@@ -4450,13 +4420,13 @@
         <v>149431</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -4465,13 +4435,13 @@
         <v>302790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4456,13 @@
         <v>52929</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -4501,13 +4471,13 @@
         <v>60869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -4516,13 +4486,13 @@
         <v>113799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4611,13 @@
         <v>531997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H25" s="7">
         <v>711</v>
@@ -4656,13 +4626,13 @@
         <v>492345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>1471</v>
@@ -4671,13 +4641,13 @@
         <v>1024342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4662,13 @@
         <v>217403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>314</v>
@@ -4707,13 +4677,13 @@
         <v>219046</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -4722,13 +4692,13 @@
         <v>436449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263F129A-6B68-49AA-89C1-DB5DB4CFD6B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48179550-53A0-47C9-B56B-14C07472EE78}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4822,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4935,7 +4905,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4950,7 +4920,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4980,13 +4950,13 @@
         <v>17757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -4995,13 +4965,13 @@
         <v>13670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5010,13 +4980,13 @@
         <v>31427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5001,13 @@
         <v>7817</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -5046,13 +5016,13 @@
         <v>8857</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5061,13 +5031,13 @@
         <v>16674</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5171,7 +5141,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5156,13 @@
         <v>84901</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H9" s="7">
         <v>117</v>
@@ -5201,13 +5171,13 @@
         <v>79386</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -5216,13 +5186,13 @@
         <v>164287</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5207,13 @@
         <v>37601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5252,13 +5222,13 @@
         <v>31794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -5267,13 +5237,13 @@
         <v>69395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,7 +5317,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5362,7 +5332,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5377,7 +5347,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5362,13 @@
         <v>158652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>233</v>
@@ -5407,13 +5377,13 @@
         <v>142384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>472</v>
@@ -5422,13 +5392,13 @@
         <v>301036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5413,13 @@
         <v>65707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -5458,13 +5428,13 @@
         <v>64863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -5473,13 +5443,13 @@
         <v>130570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,7 +5523,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5568,7 +5538,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5583,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5568,13 @@
         <v>119284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -5613,13 +5583,13 @@
         <v>110803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>365</v>
@@ -5628,13 +5598,13 @@
         <v>230087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5619,13 @@
         <v>47389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -5664,13 +5634,13 @@
         <v>45194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -5679,13 +5649,13 @@
         <v>92583</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,7 +5729,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5774,7 +5744,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5789,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5774,13 @@
         <v>153537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>198</v>
@@ -5819,13 +5789,13 @@
         <v>144833</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>418</v>
@@ -5834,13 +5804,13 @@
         <v>298369</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5825,13 @@
         <v>52199</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -5870,13 +5840,13 @@
         <v>62587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>153</v>
@@ -5885,13 +5855,13 @@
         <v>114787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +5980,13 @@
         <v>534131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>369</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
         <v>750</v>
@@ -6025,13 +5995,13 @@
         <v>491075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>1524</v>
@@ -6040,13 +6010,13 @@
         <v>1025207</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6031,13 @@
         <v>210713</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7">
         <v>311</v>
@@ -6076,13 +6046,13 @@
         <v>213296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M26" s="7">
         <v>602</v>
@@ -6091,13 +6061,13 @@
         <v>424008</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,7 +6144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A34C9C-3398-4AC2-92DF-E509133A5354}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B79DE3-3ACA-4845-BCA1-36DBADE0F265}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6191,7 +6161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6298,13 +6268,13 @@
         <v>5679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6313,13 +6283,13 @@
         <v>4955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -6328,13 +6298,13 @@
         <v>10634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6319,13 @@
         <v>4523</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6364,13 +6334,13 @@
         <v>5244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -6379,13 +6349,13 @@
         <v>9767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6370,13 @@
         <v>2496</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -6415,13 +6385,13 @@
         <v>6589</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6430,13 +6400,13 @@
         <v>9085</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6474,13 @@
         <v>38535</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -6519,13 +6489,13 @@
         <v>36565</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -6534,13 +6504,13 @@
         <v>75100</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6525,13 @@
         <v>43307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -6570,13 +6540,13 @@
         <v>39349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="M9" s="7">
         <v>108</v>
@@ -6585,13 +6555,13 @@
         <v>82657</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6576,13 @@
         <v>32207</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -6621,13 +6591,13 @@
         <v>27980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -6636,13 +6606,13 @@
         <v>60188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6680,13 @@
         <v>71729</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>109</v>
@@ -6725,13 +6695,13 @@
         <v>68162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>231</v>
@@ -6740,13 +6710,13 @@
         <v>139891</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6731,13 @@
         <v>99393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -6776,13 +6746,13 @@
         <v>72857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -6791,13 +6761,13 @@
         <v>172251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6782,13 @@
         <v>74611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -6827,13 +6797,13 @@
         <v>48182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -6842,13 +6812,13 @@
         <v>122793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6886,13 @@
         <v>44873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -6931,13 +6901,13 @@
         <v>48103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -6946,13 +6916,13 @@
         <v>92976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6937,13 @@
         <v>69160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6982,13 +6952,13 @@
         <v>65380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -6997,13 +6967,13 @@
         <v>134540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +6988,13 @@
         <v>56068</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -7033,13 +7003,13 @@
         <v>51750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>343</v>
+        <v>475</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="M18" s="7">
         <v>136</v>
@@ -7048,13 +7018,13 @@
         <v>107818</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7092,13 @@
         <v>57630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -7137,13 +7107,13 @@
         <v>54479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>172</v>
@@ -7152,13 +7122,13 @@
         <v>112109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7143,13 @@
         <v>57984</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -7188,13 +7158,13 @@
         <v>55915</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -7203,13 +7173,13 @@
         <v>113898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7194,13 @@
         <v>56281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7239,13 +7209,13 @@
         <v>57110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>149</v>
@@ -7254,13 +7224,13 @@
         <v>113391</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7298,13 @@
         <v>218446</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>345</v>
@@ -7343,13 +7313,13 @@
         <v>212264</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>702</v>
@@ -7358,13 +7328,13 @@
         <v>430710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>521</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7349,13 @@
         <v>274367</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>315</v>
@@ -7394,13 +7364,13 @@
         <v>238745</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>648</v>
@@ -7409,13 +7379,13 @@
         <v>513112</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7400,13 @@
         <v>221663</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>523</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>268</v>
@@ -7445,13 +7415,13 @@
         <v>191612</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>533</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>541</v>
@@ -7460,13 +7430,13 @@
         <v>413275</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5EB41A-C596-4958-9AF5-E209608C94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F8F7D28-D8B4-4A9B-A457-8094B04B5C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE4D3B71-E949-43E0-90DE-FEB4FFE29AAA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{234D2CC4-A1BB-4906-B29E-9C4A5C30199E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="444">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No, nunca ha ido al/la dentista</t>
@@ -80,403 +80,337 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>30,84%</t>
   </si>
   <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -485,1147 +419,958 @@
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>35,69%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
   </si>
 </sst>
 </file>
@@ -2037,8 +1782,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C972FBA-2FC8-41CF-BE73-2D4757E6D060}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEAA579-7187-4552-936D-FBEB66ED25C1}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2206,10 +1951,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>17224</v>
+        <v>88724</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2221,10 +1966,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>13119</v>
+        <v>109752</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -2236,10 +1981,10 @@
         <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="N5" s="7">
-        <v>30343</v>
+        <v>198476</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -2257,10 +2002,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7">
-        <v>8220</v>
+        <v>50002</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2272,10 +2017,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I6" s="7">
-        <v>9605</v>
+        <v>43325</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2287,10 +2032,10 @@
         <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="N6" s="7">
-        <v>17825</v>
+        <v>93327</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -2308,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2323,10 +2068,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I7" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2338,10 +2083,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N7" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2412,10 +2157,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D9" s="7">
-        <v>92528</v>
+        <v>126668</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -2427,10 +2172,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="I9" s="7">
-        <v>75605</v>
+        <v>141823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -2442,10 +2187,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="N9" s="7">
-        <v>168133</v>
+        <v>268491</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>47</v>
@@ -2463,10 +2208,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>35105</v>
+        <v>67804</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2478,10 +2223,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="I10" s="7">
-        <v>40397</v>
+        <v>70319</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2493,10 +2238,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="N10" s="7">
-        <v>75502</v>
+        <v>138123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -2514,10 +2259,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>127633</v>
+        <v>194472</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2529,10 +2274,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2544,10 +2289,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>367</v>
+        <v>633</v>
       </c>
       <c r="N11" s="7">
-        <v>243635</v>
+        <v>406614</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2618,10 +2363,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="D13" s="7">
-        <v>141823</v>
+        <v>100496</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -2633,10 +2378,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="I13" s="7">
-        <v>126668</v>
+        <v>105540</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -2648,10 +2393,10 @@
         <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="N13" s="7">
-        <v>268491</v>
+        <v>206036</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>69</v>
@@ -2669,10 +2414,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>70319</v>
+        <v>37321</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -2684,10 +2429,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I14" s="7">
-        <v>67804</v>
+        <v>44117</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -2699,10 +2444,10 @@
         <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="N14" s="7">
-        <v>138123</v>
+        <v>81438</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
@@ -2720,10 +2465,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D15" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2735,10 +2480,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>194472</v>
+        <v>149657</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2750,10 +2495,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>633</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>406614</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2824,10 +2569,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>105540</v>
+        <v>143131</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -2839,10 +2584,10 @@
         <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="I17" s="7">
-        <v>100496</v>
+        <v>154261</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>88</v>
@@ -2854,10 +2599,10 @@
         <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="N17" s="7">
-        <v>206036</v>
+        <v>297392</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>91</v>
@@ -2875,10 +2620,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D18" s="7">
-        <v>44117</v>
+        <v>66184</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>94</v>
@@ -2890,10 +2635,10 @@
         <v>96</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I18" s="7">
-        <v>37321</v>
+        <v>53563</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>97</v>
@@ -2905,10 +2650,10 @@
         <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="N18" s="7">
-        <v>81438</v>
+        <v>119747</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>100</v>
@@ -2926,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D19" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2941,10 +2686,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I19" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2956,10 +2701,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N19" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2973,7 +2718,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2991,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3006,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3021,7 +2766,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,49 +2775,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>228</v>
+        <v>692</v>
       </c>
       <c r="D21" s="7">
-        <v>154261</v>
+        <v>459019</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>769</v>
+      </c>
+      <c r="I21" s="7">
+        <v>511376</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="7">
-        <v>188</v>
-      </c>
-      <c r="I21" s="7">
-        <v>143131</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>1461</v>
+      </c>
+      <c r="N21" s="7">
+        <v>970395</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="7">
-        <v>416</v>
-      </c>
-      <c r="N21" s="7">
-        <v>297392</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,49 +2826,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="D22" s="7">
-        <v>53563</v>
+        <v>221311</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>317</v>
+      </c>
+      <c r="I22" s="7">
+        <v>211324</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="7">
-        <v>86</v>
-      </c>
-      <c r="I22" s="7">
-        <v>66184</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>642</v>
+      </c>
+      <c r="N22" s="7">
+        <v>432635</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="7">
-        <v>164</v>
-      </c>
-      <c r="N22" s="7">
-        <v>119747</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>306</v>
+        <v>1017</v>
       </c>
       <c r="D23" s="7">
-        <v>207824</v>
+        <v>680330</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -3147,10 +2892,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I23" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3162,10 +2907,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>580</v>
+        <v>2103</v>
       </c>
       <c r="N23" s="7">
-        <v>417139</v>
+        <v>1403030</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -3178,222 +2923,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>769</v>
-      </c>
-      <c r="D25" s="7">
-        <v>511376</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="7">
-        <v>692</v>
-      </c>
-      <c r="I25" s="7">
-        <v>459019</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1461</v>
-      </c>
-      <c r="N25" s="7">
-        <v>970395</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>317</v>
-      </c>
-      <c r="D26" s="7">
-        <v>211324</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="7">
-        <v>325</v>
-      </c>
-      <c r="I26" s="7">
-        <v>221311</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M26" s="7">
-        <v>642</v>
-      </c>
-      <c r="N26" s="7">
-        <v>432635</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D27" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I27" s="7">
-        <v>680330</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2103</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1403030</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>146</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3406,8 +2944,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EA7159-29E2-4EB7-AEDB-3C7BA67DE212}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763FC159-5D6B-4FC8-A419-1E200AC3EFDD}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3423,7 +2961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3551,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3566,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,49 +3113,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>18122</v>
+        <v>97354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="I5" s="7">
-        <v>13272</v>
+        <v>104930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="N5" s="7">
-        <v>31394</v>
+        <v>202284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,49 +3164,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7">
-        <v>7333</v>
+        <v>42003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I6" s="7">
-        <v>9101</v>
+        <v>49754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="N6" s="7">
-        <v>16434</v>
+        <v>91757</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,10 +3215,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3692,10 +3230,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3707,10 +3245,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3742,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3757,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3772,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,49 +3319,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="D9" s="7">
-        <v>86808</v>
+        <v>136536</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="I9" s="7">
-        <v>84081</v>
+        <v>158168</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
-        <v>242</v>
+        <v>443</v>
       </c>
       <c r="N9" s="7">
-        <v>170889</v>
+        <v>294704</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,49 +3370,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>42421</v>
+        <v>69822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>32903</v>
+        <v>65095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="N10" s="7">
-        <v>75324</v>
+        <v>134917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3898,10 +3436,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="I11" s="7">
-        <v>116984</v>
+        <v>223263</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3913,10 +3451,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>642</v>
       </c>
       <c r="N11" s="7">
-        <v>246213</v>
+        <v>429621</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3948,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3963,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3978,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +3525,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="D13" s="7">
-        <v>158168</v>
+        <v>109025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="I13" s="7">
-        <v>136536</v>
+        <v>115539</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="N13" s="7">
-        <v>294704</v>
+        <v>224564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3576,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7">
-        <v>65095</v>
+        <v>46351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>69822</v>
+        <v>49625</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>134917</v>
+        <v>95976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3627,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D15" s="7">
-        <v>223263</v>
+        <v>155376</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4104,10 +3642,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7">
-        <v>206358</v>
+        <v>165164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4119,10 +3657,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>642</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>429621</v>
+        <v>320540</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4154,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4169,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4184,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3731,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D17" s="7">
-        <v>115539</v>
+        <v>149431</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="I17" s="7">
-        <v>109025</v>
+        <v>153360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="N17" s="7">
-        <v>224564</v>
+        <v>302790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,49 +3782,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7">
-        <v>49625</v>
+        <v>60869</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="H18" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="7">
-        <v>46351</v>
+        <v>52929</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="M18" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N18" s="7">
-        <v>95976</v>
+        <v>113799</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,10 +3833,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>165164</v>
+        <v>210300</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4310,10 +3848,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="I19" s="7">
-        <v>155376</v>
+        <v>206289</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4325,10 +3863,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="N19" s="7">
-        <v>320540</v>
+        <v>416589</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -4342,7 +3880,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4360,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4375,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4390,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,49 +3937,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>711</v>
+      </c>
+      <c r="D21" s="7">
+        <v>492345</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="7">
-        <v>153360</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="H21" s="7">
-        <v>196</v>
+        <v>760</v>
       </c>
       <c r="I21" s="7">
-        <v>149431</v>
+        <v>531997</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="M21" s="7">
-        <v>403</v>
+        <v>1471</v>
       </c>
       <c r="N21" s="7">
-        <v>302790</v>
+        <v>1024342</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,49 +3988,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="D22" s="7">
-        <v>52929</v>
+        <v>219046</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="I22" s="7">
-        <v>60869</v>
+        <v>217403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
-        <v>152</v>
+        <v>622</v>
       </c>
       <c r="N22" s="7">
-        <v>113799</v>
+        <v>436449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,10 +4039,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>280</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="7">
-        <v>206289</v>
+        <v>711391</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -4516,10 +4054,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>275</v>
+        <v>1068</v>
       </c>
       <c r="I23" s="7">
-        <v>210300</v>
+        <v>749400</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4531,10 +4069,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>555</v>
+        <v>2093</v>
       </c>
       <c r="N23" s="7">
-        <v>416589</v>
+        <v>1460791</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -4547,222 +4085,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>760</v>
-      </c>
-      <c r="D25" s="7">
-        <v>531997</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H25" s="7">
-        <v>711</v>
-      </c>
-      <c r="I25" s="7">
-        <v>492345</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1471</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1024342</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>308</v>
-      </c>
-      <c r="D26" s="7">
-        <v>217403</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="7">
-        <v>314</v>
-      </c>
-      <c r="I26" s="7">
-        <v>219046</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M26" s="7">
-        <v>622</v>
-      </c>
-      <c r="N26" s="7">
-        <v>436449</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1068</v>
-      </c>
-      <c r="D27" s="7">
-        <v>749400</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I27" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1460791</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>146</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4775,8 +4106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48179550-53A0-47C9-B56B-14C07472EE78}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D09DACD-5E1F-4108-8219-D84478A75A11}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4792,7 +4123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4905,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4920,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4935,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +4275,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>17757</v>
+        <v>93056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="7">
+        <v>137</v>
+      </c>
+      <c r="I5" s="7">
+        <v>102658</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" s="7">
         <v>269</v>
       </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13670</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M5" s="7">
-        <v>36</v>
-      </c>
       <c r="N5" s="7">
-        <v>31427</v>
+        <v>195714</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,49 +4326,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7">
-        <v>7817</v>
+        <v>40651</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>8857</v>
+        <v>45418</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N6" s="7">
-        <v>16674</v>
+        <v>86069</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,10 +4377,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -5061,10 +4392,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5076,10 +4407,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5111,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5126,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5141,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,49 +4481,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="D9" s="7">
-        <v>84901</v>
+        <v>142384</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="H9" s="7">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="I9" s="7">
-        <v>79386</v>
+        <v>158652</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="N9" s="7">
-        <v>164287</v>
+        <v>301036</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,49 +4532,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7">
-        <v>37601</v>
+        <v>64863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>31794</v>
+        <v>65707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>69395</v>
+        <v>130570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,10 +4583,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -5267,10 +4598,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5282,10 +4613,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5317,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5332,7 +4663,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5347,7 +4678,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,49 +4687,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>158652</v>
+        <v>110803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="I13" s="7">
-        <v>142384</v>
+        <v>119284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
-        <v>472</v>
+        <v>365</v>
       </c>
       <c r="N13" s="7">
-        <v>301036</v>
+        <v>230087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,49 +4738,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7">
-        <v>65707</v>
+        <v>45194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="I14" s="7">
-        <v>64863</v>
+        <v>47389</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="N14" s="7">
-        <v>130570</v>
+        <v>92583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,10 +4789,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5473,10 +4804,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I15" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5488,10 +4819,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5523,7 +4854,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5538,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5553,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,49 +4893,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D17" s="7">
-        <v>119284</v>
+        <v>144833</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="I17" s="7">
-        <v>110803</v>
+        <v>153537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="N17" s="7">
-        <v>230087</v>
+        <v>298369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,49 +4944,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>83</v>
+      </c>
+      <c r="D18" s="7">
+        <v>62587</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="7">
         <v>70</v>
       </c>
-      <c r="D18" s="7">
-        <v>47389</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H18" s="7">
-        <v>72</v>
-      </c>
       <c r="I18" s="7">
-        <v>45194</v>
+        <v>52199</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N18" s="7">
-        <v>92583</v>
+        <v>114787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>341</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D19" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5679,10 +5010,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I19" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5694,10 +5025,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N19" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5711,7 +5042,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5729,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5744,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5759,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,49 +5099,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="D21" s="7">
-        <v>153537</v>
+        <v>491075</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="H21" s="7">
-        <v>198</v>
+        <v>774</v>
       </c>
       <c r="I21" s="7">
-        <v>144833</v>
+        <v>534131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="M21" s="7">
-        <v>418</v>
+        <v>1524</v>
       </c>
       <c r="N21" s="7">
-        <v>298369</v>
+        <v>1025207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,49 +5150,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="D22" s="7">
-        <v>52199</v>
+        <v>213296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="I22" s="7">
-        <v>62587</v>
+        <v>210713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
-        <v>153</v>
+        <v>602</v>
       </c>
       <c r="N22" s="7">
-        <v>114787</v>
+        <v>424008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,10 +5201,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D23" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -5885,10 +5216,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I23" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -5900,10 +5231,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N23" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -5916,222 +5247,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>774</v>
-      </c>
-      <c r="D25" s="7">
-        <v>534131</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H25" s="7">
-        <v>750</v>
-      </c>
-      <c r="I25" s="7">
-        <v>491075</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1524</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1025207</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>291</v>
-      </c>
-      <c r="D26" s="7">
-        <v>210713</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="7">
-        <v>311</v>
-      </c>
-      <c r="I26" s="7">
-        <v>213296</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M26" s="7">
-        <v>602</v>
-      </c>
-      <c r="N26" s="7">
-        <v>424008</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D27" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I27" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>146</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6144,8 +5268,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B79DE3-3ACA-4845-BCA1-36DBADE0F265}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48E8484-5641-4768-9212-DDDCD0A4CC25}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6161,7 +5285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6262,49 +5386,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>5679</v>
+        <v>41359</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>4955</v>
+        <v>49918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="N4" s="7">
-        <v>10634</v>
+        <v>91278</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +5437,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>4523</v>
+        <v>41215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I5" s="7">
-        <v>5244</v>
+        <v>48931</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="N5" s="7">
-        <v>9767</v>
+        <v>90147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,49 +5488,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7">
-        <v>2496</v>
+        <v>34705</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7">
-        <v>6589</v>
+        <v>41021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="N6" s="7">
-        <v>9085</v>
+        <v>75726</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,10 +5539,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -6430,10 +5554,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>139870</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -6445,10 +5569,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257150</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -6468,49 +5592,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>38535</v>
+        <v>71178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="I8" s="7">
-        <v>36565</v>
+        <v>74508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="N8" s="7">
-        <v>75100</v>
+        <v>145686</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,49 +5643,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D9" s="7">
-        <v>43307</v>
+        <v>68573</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>412</v>
+        <v>176</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="H9" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="I9" s="7">
-        <v>39349</v>
+        <v>100606</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="M9" s="7">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="N9" s="7">
-        <v>82657</v>
+        <v>169180</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,49 +5694,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>32207</v>
+        <v>47766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7">
-        <v>27980</v>
+        <v>75349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="N10" s="7">
-        <v>60188</v>
+        <v>123114</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,10 +5745,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="D11" s="7">
-        <v>114049</v>
+        <v>187517</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -6636,10 +5760,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>250463</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -6651,10 +5775,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>319</v>
+        <v>613</v>
       </c>
       <c r="N11" s="7">
-        <v>217944</v>
+        <v>437980</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -6674,49 +5798,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>71729</v>
+        <v>49769</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>68162</v>
+        <v>47852</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="N12" s="7">
-        <v>139891</v>
+        <v>97622</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,49 +5849,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>99393</v>
+        <v>85931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>72857</v>
+        <v>74224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="N13" s="7">
-        <v>172251</v>
+        <v>160155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,49 +5900,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7">
-        <v>74611</v>
+        <v>51273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>48182</v>
+        <v>59978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="N14" s="7">
-        <v>122793</v>
+        <v>111250</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,10 +5951,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="D15" s="7">
-        <v>245734</v>
+        <v>186973</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -6842,10 +5966,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="I15" s="7">
-        <v>189201</v>
+        <v>182054</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -6857,10 +5981,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>613</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>434935</v>
+        <v>369027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -6880,49 +6004,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>44873</v>
+        <v>53495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>48103</v>
+        <v>59819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="N16" s="7">
-        <v>92976</v>
+        <v>113314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,49 +6055,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D17" s="7">
-        <v>69160</v>
+        <v>54442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>65380</v>
+        <v>59068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N17" s="7">
-        <v>134540</v>
+        <v>113510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,49 +6106,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D18" s="7">
-        <v>56068</v>
+        <v>55469</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" s="7">
-        <v>51750</v>
+        <v>59098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="N18" s="7">
-        <v>107818</v>
+        <v>114567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,10 +6157,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D19" s="7">
-        <v>170101</v>
+        <v>163405</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -7048,10 +6172,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I19" s="7">
-        <v>165234</v>
+        <v>177985</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -7063,10 +6187,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="N19" s="7">
-        <v>335335</v>
+        <v>341390</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -7080,55 +6204,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="D20" s="7">
-        <v>57630</v>
+        <v>215801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="I20" s="7">
-        <v>54479</v>
+        <v>232097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
-        <v>172</v>
+        <v>702</v>
       </c>
       <c r="N20" s="7">
-        <v>112109</v>
+        <v>447898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,49 +6261,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="D21" s="7">
-        <v>57984</v>
+        <v>250161</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="H21" s="7">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="I21" s="7">
-        <v>55915</v>
+        <v>282829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="M21" s="7">
-        <v>148</v>
+        <v>648</v>
       </c>
       <c r="N21" s="7">
-        <v>113898</v>
+        <v>532991</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>495</v>
+        <v>410</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>496</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,49 +6312,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="D22" s="7">
-        <v>56281</v>
+        <v>189213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="I22" s="7">
-        <v>57110</v>
+        <v>235444</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
-        <v>149</v>
+        <v>541</v>
       </c>
       <c r="N22" s="7">
-        <v>113391</v>
+        <v>424657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,10 +6363,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>234</v>
+        <v>928</v>
       </c>
       <c r="D23" s="7">
-        <v>171895</v>
+        <v>655175</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -7254,10 +6378,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>235</v>
+        <v>963</v>
       </c>
       <c r="I23" s="7">
-        <v>167504</v>
+        <v>750371</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -7269,10 +6393,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>469</v>
+        <v>1891</v>
       </c>
       <c r="N23" s="7">
-        <v>339398</v>
+        <v>1405546</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -7285,222 +6409,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>357</v>
-      </c>
-      <c r="D24" s="7">
-        <v>218446</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="H24" s="7">
-        <v>345</v>
-      </c>
-      <c r="I24" s="7">
-        <v>212264</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="M24" s="7">
-        <v>702</v>
-      </c>
-      <c r="N24" s="7">
-        <v>430710</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>333</v>
-      </c>
-      <c r="D25" s="7">
-        <v>274367</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H25" s="7">
-        <v>315</v>
-      </c>
-      <c r="I25" s="7">
-        <v>238745</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="M25" s="7">
-        <v>648</v>
-      </c>
-      <c r="N25" s="7">
-        <v>513112</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>273</v>
-      </c>
-      <c r="D26" s="7">
-        <v>221663</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="H26" s="7">
-        <v>268</v>
-      </c>
-      <c r="I26" s="7">
-        <v>191612</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="M26" s="7">
-        <v>541</v>
-      </c>
-      <c r="N26" s="7">
-        <v>413275</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>963</v>
-      </c>
-      <c r="D27" s="7">
-        <v>714477</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>928</v>
-      </c>
-      <c r="I27" s="7">
-        <v>642621</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1891</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1357098</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>146</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
